--- a/LogiR.xlsx
+++ b/LogiR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSK\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A0D2E85-5FB1-49E9-B166-EC4B0A326A5A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38359D4B-B419-4B34-B9E6-4BE5B0DAFFCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="19224" windowHeight="11376" xr2:uid="{C2C3EF67-C2B6-454F-9F7A-BCF78865E98D}"/>
+    <workbookView xWindow="1536" yWindow="864" windowWidth="19224" windowHeight="11376" xr2:uid="{C2C3EF67-C2B6-454F-9F7A-BCF78865E98D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>X</t>
+    <t>x</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EBCF61-788A-4BC6-AD01-06346818DCD8}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
